--- a/AAII_Financials/Quarterly/ELYS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELYS_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/ELYS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELYS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>ELYS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,98 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>12600</v>
+      </c>
+      <c r="F8" s="3">
         <v>9700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>4800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>10200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>10500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>6800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>9100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>9300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -771,8 +784,14 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,8 +819,14 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +838,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,37 +904,49 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E14" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>700</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,37 +990,45 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>18600</v>
+      </c>
+      <c r="F17" s="3">
         <v>10300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>7600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>9000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>12300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>6300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>9700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>10600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -977,28 +1036,34 @@
         <v>-600</v>
       </c>
       <c r="E18" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>1200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,66 +1075,80 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>1900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1077,19 +1156,19 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>4200</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>5</v>
@@ -1097,66 +1176,84 @@
       <c r="K22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-4100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
       </c>
       <c r="F24" s="3">
+        <v>200</v>
+      </c>
+      <c r="G24" s="3">
+        <v>100</v>
+      </c>
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>300</v>
-      </c>
-      <c r="I24" s="3">
-        <v>200</v>
       </c>
       <c r="J24" s="3">
         <v>300</v>
       </c>
       <c r="K24" s="3">
+        <v>200</v>
+      </c>
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-3900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-3100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-3900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-3900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-3900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,37 +1705,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>18900</v>
+      </c>
+      <c r="F41" s="3">
         <v>10600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>5800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>6800</v>
-      </c>
-      <c r="G41" s="3">
-        <v>5200</v>
-      </c>
-      <c r="H41" s="3">
-        <v>4900</v>
       </c>
       <c r="I41" s="3">
         <v>5200</v>
       </c>
       <c r="J41" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K41" s="3">
         <v>5200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
+        <v>5200</v>
+      </c>
+      <c r="M41" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,37 +1771,49 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F43" s="3">
         <v>900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,66 +1841,84 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>600</v>
+      </c>
+      <c r="F45" s="3">
         <v>700</v>
-      </c>
-      <c r="E45" s="3">
-        <v>700</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1200</v>
       </c>
       <c r="G45" s="3">
         <v>700</v>
       </c>
       <c r="H45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I45" s="3">
+        <v>700</v>
+      </c>
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>21200</v>
+      </c>
+      <c r="F46" s="3">
         <v>12200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>7200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>8700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>7300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>6800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>6300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>6700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1717,33 +1926,39 @@
         <v>700</v>
       </c>
       <c r="E47" s="3">
+        <v>500</v>
+      </c>
+      <c r="F47" s="3">
+        <v>700</v>
+      </c>
+      <c r="G47" s="3">
         <v>900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>400</v>
-      </c>
-      <c r="I47" s="3">
-        <v>300</v>
-      </c>
-      <c r="J47" s="3">
-        <v>300</v>
       </c>
       <c r="K47" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>300</v>
+      </c>
+      <c r="M47" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E48" s="3">
         <v>1200</v>
@@ -1752,7 +1967,7 @@
         <v>1200</v>
       </c>
       <c r="G48" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H48" s="3">
         <v>1200</v>
@@ -1761,42 +1976,54 @@
         <v>1300</v>
       </c>
       <c r="J48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K48" s="3">
         <v>1300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M48" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F49" s="3">
         <v>17000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>17200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>17300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>17500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>17700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>17900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>18000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +2086,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F52" s="3">
         <v>600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2156,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>35900</v>
+      </c>
+      <c r="F54" s="3">
         <v>31600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>28000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>29100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>27800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>27500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>27100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>27900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,182 +2225,220 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F57" s="3">
         <v>8800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>9300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>9200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>8500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>6700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>5800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>6300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>700</v>
+      </c>
+      <c r="F58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>4700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>4700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>4500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>9900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>10000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>9500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F59" s="3">
         <v>2200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1400</v>
       </c>
       <c r="K59" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M59" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F60" s="3">
         <v>11700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>16300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>16300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>16400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>17300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>17000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>17200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>100</v>
+      </c>
+      <c r="F61" s="3">
         <v>200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>100</v>
-      </c>
-      <c r="H61" s="3">
-        <v>200</v>
-      </c>
-      <c r="I61" s="3">
-        <v>200</v>
       </c>
       <c r="J61" s="3">
         <v>200</v>
       </c>
       <c r="K61" s="3">
+        <v>200</v>
+      </c>
+      <c r="L61" s="3">
+        <v>200</v>
+      </c>
+      <c r="M61" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F62" s="3">
         <v>2500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2500</v>
-      </c>
-      <c r="H62" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>3400</v>
       </c>
       <c r="J62" s="3">
         <v>2600</v>
       </c>
       <c r="K62" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>15700</v>
+      </c>
+      <c r="F66" s="3">
         <v>14400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>18900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>18900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>19000</v>
-      </c>
-      <c r="H66" s="3">
-        <v>20000</v>
-      </c>
-      <c r="I66" s="3">
-        <v>20600</v>
       </c>
       <c r="J66" s="3">
         <v>20000</v>
       </c>
       <c r="K66" s="3">
+        <v>20600</v>
+      </c>
+      <c r="L66" s="3">
+        <v>20000</v>
+      </c>
+      <c r="M66" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-33800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-33200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-26800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-25600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-23100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-23200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-19600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-18900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-17100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2866,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>20200</v>
+      </c>
+      <c r="F76" s="3">
         <v>17200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>9100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>10200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>8800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>7500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>6500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>7800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-3900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +3030,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2644,19 +3041,19 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
       </c>
       <c r="I83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
@@ -2664,8 +3061,14 @@
       <c r="K83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>200</v>
+      </c>
+      <c r="M83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>2000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>400</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3290,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2860,28 +3301,34 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,8 +3391,14 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2947,28 +3406,34 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,91 +3581,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F100" s="3">
         <v>4700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-300</v>
       </c>
       <c r="H100" s="3">
         <v>-100</v>
       </c>
       <c r="I100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E101" s="3">
+        <v>800</v>
+      </c>
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F102" s="3">
         <v>3800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELYS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELYS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>ELYS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,98 +665,105 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E8" s="3">
         <v>14200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9100</v>
-      </c>
-      <c r="L8" s="3">
-        <v>9300</v>
       </c>
       <c r="M8" s="3">
         <v>9300</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -790,8 +797,11 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +835,11 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,32 +927,35 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4900</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>700</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -945,8 +965,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E17" s="3">
         <v>14800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>18600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,78 +1110,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>1900</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-1000</v>
       </c>
       <c r="K20" s="3">
         <v>-1000</v>
       </c>
       <c r="L20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-2600</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-5800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1162,16 +1202,16 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4200</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>5</v>
@@ -1182,78 +1222,87 @@
       <c r="M22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
-      </c>
-      <c r="L24" s="3">
-        <v>300</v>
       </c>
       <c r="M24" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1900</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1000</v>
       </c>
       <c r="K32" s="3">
         <v>1000</v>
       </c>
       <c r="L32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M32" s="3">
         <v>1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,43 +1793,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E41" s="3">
         <v>21500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>18900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4900</v>
-      </c>
-      <c r="K41" s="3">
-        <v>5200</v>
       </c>
       <c r="L41" s="3">
         <v>5200</v>
       </c>
       <c r="M41" s="3">
+        <v>5200</v>
+      </c>
+      <c r="N41" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,43 +1867,49 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E43" s="3">
         <v>1500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>900</v>
-      </c>
-      <c r="G43" s="3">
-        <v>600</v>
       </c>
       <c r="H43" s="3">
         <v>600</v>
       </c>
       <c r="I43" s="3">
+        <v>600</v>
+      </c>
+      <c r="J43" s="3">
         <v>1400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,8 +1943,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1859,92 +1958,98 @@
         <v>600</v>
       </c>
       <c r="F45" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G45" s="3">
         <v>700</v>
       </c>
       <c r="H45" s="3">
+        <v>700</v>
+      </c>
+      <c r="I45" s="3">
         <v>1200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
-      </c>
-      <c r="K45" s="3">
-        <v>300</v>
       </c>
       <c r="L45" s="3">
         <v>300</v>
       </c>
       <c r="M45" s="3">
+        <v>300</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E46" s="3">
         <v>23600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>21200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>400</v>
+      </c>
+      <c r="E47" s="3">
         <v>700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>400</v>
-      </c>
-      <c r="K47" s="3">
-        <v>300</v>
       </c>
       <c r="L47" s="3">
         <v>300</v>
@@ -1952,16 +2057,19 @@
       <c r="M47" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1100</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1200</v>
       </c>
       <c r="F48" s="3">
         <v>1200</v>
@@ -1973,57 +2081,63 @@
         <v>1200</v>
       </c>
       <c r="I48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J48" s="3">
         <v>1300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1200</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1300</v>
       </c>
       <c r="L48" s="3">
         <v>1300</v>
       </c>
       <c r="M48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N48" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E49" s="3">
         <v>11700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>11900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>17000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>17200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>17300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>17500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>17700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>18000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2209,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2101,34 +2221,37 @@
         <v>1400</v>
       </c>
       <c r="E52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F52" s="3">
         <v>1100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1600</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1500</v>
       </c>
       <c r="I52" s="3">
         <v>1500</v>
       </c>
       <c r="J52" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K52" s="3">
         <v>1400</v>
       </c>
       <c r="L52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M52" s="3">
         <v>1500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E54" s="3">
         <v>38500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>35900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>31600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>28000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>29100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>27800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>27500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>27100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>27900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,8 +2357,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2236,139 +2367,151 @@
         <v>8400</v>
       </c>
       <c r="E57" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F57" s="3">
         <v>11000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>800</v>
-      </c>
-      <c r="G58" s="3">
-        <v>4700</v>
       </c>
       <c r="H58" s="3">
         <v>4700</v>
       </c>
       <c r="I58" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J58" s="3">
         <v>4500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1600</v>
-      </c>
-      <c r="F59" s="3">
-        <v>2200</v>
       </c>
       <c r="G59" s="3">
         <v>2200</v>
       </c>
       <c r="H59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I59" s="3">
         <v>2400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E60" s="3">
         <v>10000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11700</v>
-      </c>
-      <c r="G60" s="3">
-        <v>16300</v>
       </c>
       <c r="H60" s="3">
         <v>16300</v>
       </c>
       <c r="I60" s="3">
+        <v>16300</v>
+      </c>
+      <c r="J60" s="3">
         <v>16400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>17300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2376,22 +2519,22 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>100</v>
-      </c>
-      <c r="F61" s="3">
-        <v>200</v>
       </c>
       <c r="G61" s="3">
         <v>200</v>
       </c>
       <c r="H61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I61" s="3">
         <v>100</v>
       </c>
       <c r="J61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
         <v>200</v>
@@ -2400,45 +2543,51 @@
         <v>200</v>
       </c>
       <c r="M61" s="3">
+        <v>200</v>
+      </c>
+      <c r="N61" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E62" s="3">
         <v>2200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2500</v>
-      </c>
-      <c r="G62" s="3">
-        <v>2400</v>
       </c>
       <c r="H62" s="3">
         <v>2400</v>
       </c>
       <c r="I62" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J62" s="3">
         <v>2500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E66" s="3">
         <v>12300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14400</v>
-      </c>
-      <c r="G66" s="3">
-        <v>18900</v>
       </c>
       <c r="H66" s="3">
         <v>18900</v>
       </c>
       <c r="I66" s="3">
+        <v>18900</v>
+      </c>
+      <c r="J66" s="3">
         <v>19000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>20000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>20000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-33800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-33200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-26800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-25600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-23100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-23200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-19600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-18900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-17100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E76" s="3">
         <v>26200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>20200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3041,10 +3240,10 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
+        <v>200</v>
+      </c>
+      <c r="F83" s="3">
         <v>400</v>
-      </c>
-      <c r="F83" s="3">
-        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
@@ -3053,10 +3252,10 @@
         <v>200</v>
       </c>
       <c r="I83" s="3">
+        <v>200</v>
+      </c>
+      <c r="J83" s="3">
         <v>300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E89" s="3">
         <v>700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,13 +3512,14 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
@@ -3307,10 +3528,10 @@
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
@@ -3319,16 +3540,19 @@
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,13 +3624,16 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
@@ -3412,10 +3642,10 @@
         <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
@@ -3424,16 +3654,19 @@
         <v>-100</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,109 +3830,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>2900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>8000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-600</v>
-      </c>
-      <c r="K101" s="3">
-        <v>100</v>
       </c>
       <c r="L101" s="3">
         <v>100</v>
       </c>
       <c r="M101" s="3">
+        <v>100</v>
+      </c>
+      <c r="N101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E102" s="3">
         <v>2900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>8900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELYS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELYS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>ELYS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,105 +665,112 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E8" s="3">
         <v>11700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9100</v>
-      </c>
-      <c r="M8" s="3">
-        <v>9300</v>
       </c>
       <c r="N8" s="3">
         <v>9300</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -800,8 +807,11 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +848,11 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +906,11 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,35 +947,38 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4900</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>700</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -968,8 +988,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E17" s="3">
         <v>14400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,84 +1144,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>1900</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-1000</v>
       </c>
       <c r="L20" s="3">
         <v>-1000</v>
       </c>
       <c r="M20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2600</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-5800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1205,16 +1245,16 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4200</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>5</v>
@@ -1225,84 +1265,93 @@
       <c r="N22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
-      </c>
-      <c r="M24" s="3">
-        <v>300</v>
       </c>
       <c r="N24" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1634,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>700</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1900</v>
-      </c>
-      <c r="K32" s="3">
-        <v>1000</v>
       </c>
       <c r="L32" s="3">
         <v>1000</v>
       </c>
       <c r="M32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N32" s="3">
         <v>1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1880,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E41" s="3">
         <v>19200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>21500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>18900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4900</v>
-      </c>
-      <c r="L41" s="3">
-        <v>5200</v>
       </c>
       <c r="M41" s="3">
         <v>5200</v>
       </c>
       <c r="N41" s="3">
+        <v>5200</v>
+      </c>
+      <c r="O41" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,8 +1960,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1879,37 +1972,40 @@
         <v>1400</v>
       </c>
       <c r="E43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F43" s="3">
         <v>1500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>900</v>
-      </c>
-      <c r="H43" s="3">
-        <v>600</v>
       </c>
       <c r="I43" s="3">
         <v>600</v>
       </c>
       <c r="J43" s="3">
+        <v>600</v>
+      </c>
+      <c r="K43" s="3">
         <v>1400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,13 +2042,16 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="E45" s="3">
         <v>600</v>
@@ -1961,98 +2060,104 @@
         <v>600</v>
       </c>
       <c r="G45" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H45" s="3">
         <v>700</v>
       </c>
       <c r="I45" s="3">
+        <v>700</v>
+      </c>
+      <c r="J45" s="3">
         <v>1200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
-      </c>
-      <c r="L45" s="3">
-        <v>300</v>
       </c>
       <c r="M45" s="3">
         <v>300</v>
       </c>
       <c r="N45" s="3">
+        <v>300</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E46" s="3">
         <v>21200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>23600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>21200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>200</v>
+      </c>
+      <c r="E47" s="3">
         <v>400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>400</v>
-      </c>
-      <c r="L47" s="3">
-        <v>300</v>
       </c>
       <c r="M47" s="3">
         <v>300</v>
@@ -2060,8 +2165,11 @@
       <c r="N47" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2069,10 +2177,10 @@
         <v>1000</v>
       </c>
       <c r="E48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F48" s="3">
         <v>1100</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1200</v>
       </c>
       <c r="G48" s="3">
         <v>1200</v>
@@ -2084,60 +2192,66 @@
         <v>1200</v>
       </c>
       <c r="J48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K48" s="3">
         <v>1300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1200</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1300</v>
       </c>
       <c r="M48" s="3">
         <v>1300</v>
       </c>
       <c r="N48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O48" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E49" s="3">
         <v>11600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>11700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>17000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>17200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>17300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>17500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>17900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>18000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2329,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2224,34 +2344,37 @@
         <v>1400</v>
       </c>
       <c r="F52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G52" s="3">
         <v>1100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1600</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1500</v>
       </c>
       <c r="J52" s="3">
         <v>1500</v>
       </c>
       <c r="K52" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L52" s="3">
         <v>1400</v>
       </c>
       <c r="M52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N52" s="3">
         <v>1500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2411,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>63700</v>
+      </c>
+      <c r="E54" s="3">
         <v>35600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>38500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>35900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>31600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>28000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>29100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>27800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>27500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>27100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>27900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,46 +2488,50 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8400</v>
+        <v>7600</v>
       </c>
       <c r="E57" s="3">
         <v>8400</v>
       </c>
       <c r="F57" s="3">
+        <v>8400</v>
+      </c>
+      <c r="G57" s="3">
         <v>11000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2405,139 +2539,148 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>800</v>
-      </c>
-      <c r="H58" s="3">
-        <v>4700</v>
       </c>
       <c r="I58" s="3">
         <v>4700</v>
       </c>
       <c r="J58" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K58" s="3">
         <v>4500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1600</v>
-      </c>
-      <c r="G59" s="3">
-        <v>2200</v>
       </c>
       <c r="H59" s="3">
         <v>2200</v>
       </c>
       <c r="I59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J59" s="3">
         <v>2400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E60" s="3">
         <v>9800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11700</v>
-      </c>
-      <c r="H60" s="3">
-        <v>16300</v>
       </c>
       <c r="I60" s="3">
         <v>16300</v>
       </c>
       <c r="J60" s="3">
+        <v>16300</v>
+      </c>
+      <c r="K60" s="3">
         <v>16400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>17200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>100</v>
-      </c>
-      <c r="G61" s="3">
-        <v>200</v>
       </c>
       <c r="H61" s="3">
         <v>200</v>
       </c>
       <c r="I61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J61" s="3">
         <v>100</v>
       </c>
       <c r="K61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
         <v>200</v>
@@ -2546,48 +2689,54 @@
         <v>200</v>
       </c>
       <c r="N61" s="3">
+        <v>200</v>
+      </c>
+      <c r="O61" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2500</v>
-      </c>
-      <c r="H62" s="3">
-        <v>2400</v>
       </c>
       <c r="I62" s="3">
         <v>2400</v>
       </c>
       <c r="J62" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K62" s="3">
         <v>2500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2855,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E66" s="3">
         <v>11700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14400</v>
-      </c>
-      <c r="H66" s="3">
-        <v>18900</v>
       </c>
       <c r="I66" s="3">
         <v>18900</v>
       </c>
       <c r="J66" s="3">
+        <v>18900</v>
+      </c>
+      <c r="K66" s="3">
         <v>19000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>20600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>20000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-40100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-36600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-33800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-33200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-26800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-25600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-23100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-23200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-19600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-18900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-17100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E76" s="3">
         <v>23800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>26200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>20200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>17200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,22 +3429,23 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
       </c>
       <c r="F83" s="3">
+        <v>200</v>
+      </c>
+      <c r="G83" s="3">
         <v>400</v>
-      </c>
-      <c r="G83" s="3">
-        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
@@ -3255,10 +3454,10 @@
         <v>200</v>
       </c>
       <c r="J83" s="3">
+        <v>200</v>
+      </c>
+      <c r="K83" s="3">
         <v>300</v>
-      </c>
-      <c r="K83" s="3">
-        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
@@ -3269,8 +3468,11 @@
       <c r="N83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3733,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3522,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
@@ -3531,10 +3752,10 @@
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
@@ -3543,16 +3764,19 @@
         <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,16 +3854,19 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-6000</v>
       </c>
       <c r="E94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
@@ -3645,10 +3875,10 @@
         <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
@@ -3657,16 +3887,19 @@
         <v>-100</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,8 +4076,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3842,109 +4088,118 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>2900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>8000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>500</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-600</v>
-      </c>
-      <c r="L101" s="3">
-        <v>100</v>
       </c>
       <c r="M101" s="3">
         <v>100</v>
       </c>
       <c r="N101" s="3">
+        <v>100</v>
+      </c>
+      <c r="O101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELYS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELYS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>ELYS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,118 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E8" s="3">
         <v>8000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9100</v>
-      </c>
-      <c r="N8" s="3">
-        <v>9300</v>
       </c>
       <c r="O8" s="3">
         <v>9300</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -810,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,38 +966,41 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>17400</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4900</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>700</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -991,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E17" s="3">
         <v>11100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>18600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,90 +1177,97 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>1900</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-1000</v>
       </c>
       <c r="M20" s="3">
         <v>-1000</v>
       </c>
       <c r="N20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2600</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-5800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1248,16 +1287,16 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4200</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>5</v>
@@ -1268,49 +1307,55 @@
       <c r="O22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1318,40 +1363,43 @@
         <v>-300</v>
       </c>
       <c r="E24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
-      </c>
-      <c r="N24" s="3">
-        <v>300</v>
       </c>
       <c r="O24" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E32" s="3">
         <v>700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1900</v>
-      </c>
-      <c r="L32" s="3">
-        <v>1000</v>
       </c>
       <c r="M32" s="3">
         <v>1000</v>
       </c>
       <c r="N32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O32" s="3">
         <v>1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,49 +1966,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E41" s="3">
         <v>9400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>19200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>21500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>18900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4900</v>
-      </c>
-      <c r="M41" s="3">
-        <v>5200</v>
       </c>
       <c r="N41" s="3">
         <v>5200</v>
       </c>
       <c r="O41" s="3">
+        <v>5200</v>
+      </c>
+      <c r="P41" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,49 +2052,55 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1400</v>
+        <v>2700</v>
       </c>
       <c r="E43" s="3">
         <v>1400</v>
       </c>
       <c r="F43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G43" s="3">
         <v>1500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>900</v>
-      </c>
-      <c r="I43" s="3">
-        <v>600</v>
       </c>
       <c r="J43" s="3">
         <v>600</v>
       </c>
       <c r="K43" s="3">
+        <v>600</v>
+      </c>
+      <c r="L43" s="3">
         <v>1400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,16 +2140,19 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E45" s="3">
         <v>1300</v>
-      </c>
-      <c r="E45" s="3">
-        <v>600</v>
       </c>
       <c r="F45" s="3">
         <v>600</v>
@@ -2063,104 +2161,110 @@
         <v>600</v>
       </c>
       <c r="H45" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I45" s="3">
         <v>700</v>
       </c>
       <c r="J45" s="3">
+        <v>700</v>
+      </c>
+      <c r="K45" s="3">
         <v>1200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
-      </c>
-      <c r="M45" s="3">
-        <v>300</v>
       </c>
       <c r="N45" s="3">
         <v>300</v>
       </c>
       <c r="O45" s="3">
+        <v>300</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E46" s="3">
         <v>12100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>21200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>23600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>21200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>400</v>
-      </c>
-      <c r="M47" s="3">
-        <v>300</v>
       </c>
       <c r="N47" s="3">
         <v>300</v>
@@ -2168,22 +2272,25 @@
       <c r="O47" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E48" s="3">
         <v>1000</v>
       </c>
       <c r="F48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G48" s="3">
         <v>1100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1200</v>
       </c>
       <c r="H48" s="3">
         <v>1200</v>
@@ -2195,63 +2302,69 @@
         <v>1200</v>
       </c>
       <c r="K48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L48" s="3">
         <v>1300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1200</v>
-      </c>
-      <c r="M48" s="3">
-        <v>1300</v>
       </c>
       <c r="N48" s="3">
         <v>1300</v>
       </c>
       <c r="O48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P48" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E49" s="3">
         <v>49000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>11600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>17000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>17200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>17300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>17700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>17900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>18000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,13 +2448,16 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="E52" s="3">
         <v>1400</v>
@@ -2347,34 +2466,37 @@
         <v>1400</v>
       </c>
       <c r="G52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H52" s="3">
         <v>1100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1600</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1500</v>
       </c>
       <c r="K52" s="3">
         <v>1500</v>
       </c>
       <c r="L52" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M52" s="3">
         <v>1400</v>
       </c>
       <c r="N52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O52" s="3">
         <v>1500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>44600</v>
+      </c>
+      <c r="E54" s="3">
         <v>63700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>35600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>38500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>35900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>31600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>28000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>29100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>27800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>27500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>27100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>27900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,49 +2618,53 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E57" s="3">
         <v>7600</v>
-      </c>
-      <c r="E57" s="3">
-        <v>8400</v>
       </c>
       <c r="F57" s="3">
         <v>8400</v>
       </c>
       <c r="G57" s="3">
+        <v>8400</v>
+      </c>
+      <c r="H57" s="3">
         <v>11000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2542,119 +2675,128 @@
         <v>100</v>
       </c>
       <c r="F58" s="3">
+        <v>100</v>
+      </c>
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>800</v>
-      </c>
-      <c r="I58" s="3">
-        <v>4700</v>
       </c>
       <c r="J58" s="3">
         <v>4700</v>
       </c>
       <c r="K58" s="3">
+        <v>4700</v>
+      </c>
+      <c r="L58" s="3">
         <v>4500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>10000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1600</v>
-      </c>
-      <c r="H59" s="3">
-        <v>2200</v>
       </c>
       <c r="I59" s="3">
         <v>2200</v>
       </c>
       <c r="J59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K59" s="3">
         <v>2400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E60" s="3">
         <v>8600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11700</v>
-      </c>
-      <c r="I60" s="3">
-        <v>16300</v>
       </c>
       <c r="J60" s="3">
         <v>16300</v>
       </c>
       <c r="K60" s="3">
+        <v>16300</v>
+      </c>
+      <c r="L60" s="3">
         <v>16400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>17000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>17200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2662,28 +2804,28 @@
         <v>200</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>100</v>
-      </c>
-      <c r="H61" s="3">
-        <v>200</v>
       </c>
       <c r="I61" s="3">
         <v>200</v>
       </c>
       <c r="J61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K61" s="3">
         <v>100</v>
       </c>
       <c r="L61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
         <v>200</v>
@@ -2692,51 +2834,57 @@
         <v>200</v>
       </c>
       <c r="O61" s="3">
+        <v>200</v>
+      </c>
+      <c r="P61" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E62" s="3">
         <v>29500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2500</v>
-      </c>
-      <c r="I62" s="3">
-        <v>2400</v>
       </c>
       <c r="J62" s="3">
         <v>2400</v>
       </c>
       <c r="K62" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L62" s="3">
         <v>2500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E66" s="3">
         <v>38300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14400</v>
-      </c>
-      <c r="I66" s="3">
-        <v>18900</v>
       </c>
       <c r="J66" s="3">
         <v>18900</v>
       </c>
       <c r="K66" s="3">
+        <v>18900</v>
+      </c>
+      <c r="L66" s="3">
         <v>19000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>20000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>20600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>20000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-40100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-36600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-33800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-33200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-26800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-25600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-23100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-23200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-19600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-18900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-17100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E76" s="3">
         <v>25400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>23800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>26200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>20200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>17200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,25 +3627,26 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>500</v>
+      </c>
+      <c r="E83" s="3">
         <v>400</v>
-      </c>
-      <c r="E83" s="3">
-        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
       </c>
       <c r="G83" s="3">
+        <v>200</v>
+      </c>
+      <c r="H83" s="3">
         <v>400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
@@ -3457,10 +3655,10 @@
         <v>200</v>
       </c>
       <c r="K83" s="3">
+        <v>200</v>
+      </c>
+      <c r="L83" s="3">
         <v>300</v>
-      </c>
-      <c r="L83" s="3">
-        <v>200</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
@@ -3471,8 +3669,11 @@
       <c r="O83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>400</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,19 +3953,20 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
@@ -3755,10 +3975,10 @@
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
@@ -3767,16 +3987,19 @@
         <v>-100</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,19 +4083,22 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6000</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
@@ -3878,10 +4107,10 @@
         <v>-100</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
@@ -3890,16 +4119,19 @@
         <v>-100</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,8 +4321,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4091,115 +4336,124 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>2900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>8000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>500</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-600</v>
-      </c>
-      <c r="M101" s="3">
-        <v>100</v>
       </c>
       <c r="N101" s="3">
         <v>100</v>
       </c>
       <c r="O101" s="3">
+        <v>100</v>
+      </c>
+      <c r="P101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELYS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELYS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>ELYS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,132 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11700</v>
+        <v>10300</v>
       </c>
       <c r="E8" s="3">
-        <v>8000</v>
+        <v>12200</v>
       </c>
       <c r="F8" s="3">
         <v>11700</v>
       </c>
       <c r="G8" s="3">
+        <v>8000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>11700</v>
+      </c>
+      <c r="I8" s="3">
         <v>14200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>12600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>9700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>10200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>10500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>6800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>9100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>9300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +833,14 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +883,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +907,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +953,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,52 +1003,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
         <v>17400</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
         <v>4900</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>700</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1103,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1124,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F17" s="3">
         <v>32100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>11100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>14400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>14800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>18600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>10300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>7600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>9000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>12300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>6300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>9700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>10600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-20400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-3100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2700</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-6000</v>
       </c>
       <c r="I18" s="3">
         <v>-600</v>
       </c>
       <c r="J18" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L18" s="3">
         <v>-2800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1244,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
         <v>12000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>400</v>
       </c>
       <c r="H20" s="3">
         <v>-200</v>
       </c>
       <c r="I20" s="3">
+        <v>400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-8000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-3400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2600</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-5800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-2600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1290,116 +1370,134 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>4200</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-8500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-3800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-6200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-4100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
-      </c>
-      <c r="H24" s="3">
-        <v>100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>200</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
       </c>
       <c r="K24" s="3">
+        <v>200</v>
+      </c>
+      <c r="L24" s="3">
+        <v>100</v>
+      </c>
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-200</v>
-      </c>
-      <c r="M24" s="3">
-        <v>300</v>
-      </c>
-      <c r="N24" s="3">
-        <v>200</v>
       </c>
       <c r="O24" s="3">
         <v>300</v>
       </c>
       <c r="P24" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-8200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-3500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-6400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-3900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-3100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-8200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-3500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-6400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-3900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1740,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1840,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-12000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>700</v>
-      </c>
-      <c r="F32" s="3">
-        <v>200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-400</v>
       </c>
       <c r="H32" s="3">
         <v>200</v>
       </c>
       <c r="I32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>200</v>
+      </c>
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-8200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-3500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-6400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-3900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-3100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-8200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-3500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-6400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-3900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-3100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2139,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F41" s="3">
         <v>7300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>9400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>19200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>21500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>18900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>10600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>5800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>6800</v>
-      </c>
-      <c r="L41" s="3">
-        <v>5200</v>
-      </c>
-      <c r="M41" s="3">
-        <v>4900</v>
       </c>
       <c r="N41" s="3">
         <v>5200</v>
       </c>
       <c r="O41" s="3">
+        <v>4900</v>
+      </c>
+      <c r="P41" s="3">
         <v>5200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
+        <v>5200</v>
+      </c>
+      <c r="R41" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,52 +2235,64 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F43" s="3">
         <v>2700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,160 +2335,184 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F45" s="3">
         <v>1400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1300</v>
-      </c>
-      <c r="F45" s="3">
-        <v>600</v>
-      </c>
-      <c r="G45" s="3">
-        <v>600</v>
       </c>
       <c r="H45" s="3">
         <v>600</v>
       </c>
       <c r="I45" s="3">
+        <v>600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>600</v>
+      </c>
+      <c r="K45" s="3">
         <v>700</v>
-      </c>
-      <c r="J45" s="3">
-        <v>700</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1200</v>
       </c>
       <c r="L45" s="3">
         <v>700</v>
       </c>
       <c r="M45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N45" s="3">
+        <v>700</v>
+      </c>
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F46" s="3">
         <v>11400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>12100</v>
-      </c>
-      <c r="F46" s="3">
-        <v>21200</v>
-      </c>
-      <c r="G46" s="3">
-        <v>23600</v>
       </c>
       <c r="H46" s="3">
         <v>21200</v>
       </c>
       <c r="I46" s="3">
+        <v>23600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>21200</v>
+      </c>
+      <c r="K46" s="3">
         <v>12200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>7200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>8700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>7300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>6800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>6300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>6700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E47" s="3">
+        <v>100</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>400</v>
-      </c>
-      <c r="G47" s="3">
-        <v>700</v>
-      </c>
-      <c r="H47" s="3">
-        <v>500</v>
       </c>
       <c r="I47" s="3">
         <v>700</v>
       </c>
       <c r="J47" s="3">
+        <v>500</v>
+      </c>
+      <c r="K47" s="3">
+        <v>700</v>
+      </c>
+      <c r="L47" s="3">
         <v>900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>400</v>
-      </c>
-      <c r="N47" s="3">
-        <v>300</v>
-      </c>
-      <c r="O47" s="3">
-        <v>300</v>
       </c>
       <c r="P47" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>300</v>
+      </c>
+      <c r="R47" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F48" s="3">
         <v>1100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1200</v>
       </c>
       <c r="J48" s="3">
         <v>1200</v>
@@ -2305,7 +2521,7 @@
         <v>1200</v>
       </c>
       <c r="L48" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="M48" s="3">
         <v>1200</v>
@@ -2314,57 +2530,69 @@
         <v>1300</v>
       </c>
       <c r="O48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P48" s="3">
         <v>1300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R48" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>31300</v>
+      </c>
+      <c r="F49" s="3">
         <v>31700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>49000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>11600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>11700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>11900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>17000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>17200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>17300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>17500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>17700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>17900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>18000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2685,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2460,43 +2700,49 @@
         <v>400</v>
       </c>
       <c r="E52" s="3">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="F52" s="3">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="G52" s="3">
         <v>1400</v>
       </c>
       <c r="H52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J52" s="3">
         <v>1100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2785,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>43600</v>
+      </c>
+      <c r="F54" s="3">
         <v>44600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>63700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>35600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>38500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>35900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>31600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>28000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>29100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>27800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>27500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>27100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>27900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,57 +2879,65 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F57" s="3">
         <v>9400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>7600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>8400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>8400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>11000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>8800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>9300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>9200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>8500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>6700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>5800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>6300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
@@ -2678,125 +2946,143 @@
         <v>100</v>
       </c>
       <c r="G58" s="3">
+        <v>100</v>
+      </c>
+      <c r="H58" s="3">
+        <v>100</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>4700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>4700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>4500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>9900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>10000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>9500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>600</v>
+      </c>
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1100</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1400</v>
       </c>
       <c r="P59" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R59" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9800</v>
+        <v>8300</v>
       </c>
       <c r="E60" s="3">
-        <v>8600</v>
+        <v>9400</v>
       </c>
       <c r="F60" s="3">
         <v>9800</v>
       </c>
       <c r="G60" s="3">
+        <v>8600</v>
+      </c>
+      <c r="H60" s="3">
+        <v>9800</v>
+      </c>
+      <c r="I60" s="3">
         <v>10000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>13300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>11700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>16300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>16300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>16400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>17300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>17000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>17200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2807,84 +3093,96 @@
         <v>200</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>100</v>
-      </c>
-      <c r="M61" s="3">
-        <v>200</v>
-      </c>
-      <c r="N61" s="3">
-        <v>200</v>
       </c>
       <c r="O61" s="3">
         <v>200</v>
       </c>
       <c r="P61" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>200</v>
+      </c>
+      <c r="R61" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>17900</v>
+      </c>
+      <c r="F62" s="3">
         <v>16900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>29500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2500</v>
-      </c>
-      <c r="M62" s="3">
-        <v>2600</v>
-      </c>
-      <c r="N62" s="3">
-        <v>3400</v>
       </c>
       <c r="O62" s="3">
         <v>2600</v>
       </c>
       <c r="P62" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="R62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3325,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>27400</v>
+      </c>
+      <c r="F66" s="3">
         <v>26800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>38300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>11700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>12300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>15700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>14400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>18900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>18900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>19000</v>
-      </c>
-      <c r="M66" s="3">
-        <v>20000</v>
-      </c>
-      <c r="N66" s="3">
-        <v>20600</v>
       </c>
       <c r="O66" s="3">
         <v>20000</v>
       </c>
       <c r="P66" s="3">
+        <v>20600</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>20000</v>
+      </c>
+      <c r="R66" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3595,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-54600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-50800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-48200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-40100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-36600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-33800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-33200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-26800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-25600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-23100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-23200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-19600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-18900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-17100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>16200</v>
+      </c>
+      <c r="F76" s="3">
         <v>17700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>25400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>23800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>26200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>20200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>17200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>9100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>10200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>8800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>7500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>6500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>7800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-8200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-3500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-6400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-3900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-3100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4024,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3640,31 +4038,31 @@
         <v>400</v>
       </c>
       <c r="F83" s="3">
+        <v>500</v>
+      </c>
+      <c r="G83" s="3">
+        <v>400</v>
+      </c>
+      <c r="H83" s="3">
         <v>200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>400</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
       </c>
       <c r="J83" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
       </c>
       <c r="L83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
       </c>
       <c r="N83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
@@ -3672,8 +4070,14 @@
       <c r="P83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>200</v>
+      </c>
+      <c r="R83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4320,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-3500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>2000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>400</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-1000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4394,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4540,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-6000</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-100</v>
-      </c>
       <c r="H94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
       </c>
       <c r="L94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
       </c>
       <c r="N94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4810,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>2900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>8000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>4700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-300</v>
       </c>
       <c r="M100" s="3">
         <v>-100</v>
       </c>
       <c r="N100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="E101" s="3">
         <v>-300</v>
       </c>
       <c r="F101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>500</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-3100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-9800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-2400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>2900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>8900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>3800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELYS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELYS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>ELYS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,132 +665,139 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E8" s="3">
         <v>10300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9100</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>9300</v>
       </c>
       <c r="R8" s="3">
         <v>9300</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -839,8 +846,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,47 +1026,50 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>1200</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
         <v>17400</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>4900</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>700</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E17" s="3">
         <v>13800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>32100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-20400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,108 +1279,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>12000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>1900</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-1000</v>
       </c>
       <c r="P20" s="3">
         <v>-1000</v>
       </c>
       <c r="Q20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-8000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2600</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-5800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1376,17 +1416,17 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4200</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1396,108 +1436,117 @@
       <c r="R22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-300</v>
       </c>
       <c r="G24" s="3">
         <v>-300</v>
       </c>
       <c r="H24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>300</v>
       </c>
       <c r="R24" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,8 +1595,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1555,49 +1607,52 @@
         <v>-3800</v>
       </c>
       <c r="E26" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1605,49 +1660,52 @@
         <v>-3800</v>
       </c>
       <c r="E27" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,58 +1913,64 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>600</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-12000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-1900</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1000</v>
       </c>
       <c r="P32" s="3">
         <v>1000</v>
       </c>
       <c r="Q32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R32" s="3">
         <v>1600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1905,49 +1978,52 @@
         <v>-3800</v>
       </c>
       <c r="E33" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,8 +2072,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2005,104 +2084,110 @@
         <v>-3800</v>
       </c>
       <c r="E35" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E41" s="3">
         <v>6000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>19200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>21500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>18900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4900</v>
-      </c>
-      <c r="P41" s="3">
-        <v>5200</v>
       </c>
       <c r="Q41" s="3">
         <v>5200</v>
       </c>
       <c r="R41" s="3">
+        <v>5200</v>
+      </c>
+      <c r="S41" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,58 +2331,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E43" s="3">
         <v>1400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2700</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1400</v>
       </c>
       <c r="H43" s="3">
         <v>1400</v>
       </c>
       <c r="I43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J43" s="3">
         <v>1500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>900</v>
-      </c>
-      <c r="L43" s="3">
-        <v>600</v>
       </c>
       <c r="M43" s="3">
         <v>600</v>
       </c>
       <c r="N43" s="3">
+        <v>600</v>
+      </c>
+      <c r="O43" s="3">
         <v>1400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,25 +2437,28 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E45" s="3">
         <v>2400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1300</v>
-      </c>
-      <c r="H45" s="3">
-        <v>600</v>
       </c>
       <c r="I45" s="3">
         <v>600</v>
@@ -2368,81 +2467,87 @@
         <v>600</v>
       </c>
       <c r="K45" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L45" s="3">
         <v>700</v>
       </c>
       <c r="M45" s="3">
+        <v>700</v>
+      </c>
+      <c r="N45" s="3">
         <v>1200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
-      </c>
-      <c r="P45" s="3">
-        <v>300</v>
       </c>
       <c r="Q45" s="3">
         <v>300</v>
       </c>
       <c r="R45" s="3">
+        <v>300</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E46" s="3">
         <v>9800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>11400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>21200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>23600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>21200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2453,37 +2558,37 @@
         <v>100</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>400</v>
-      </c>
-      <c r="P47" s="3">
-        <v>300</v>
       </c>
       <c r="Q47" s="3">
         <v>300</v>
@@ -2491,31 +2596,34 @@
       <c r="R47" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E48" s="3">
         <v>1700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1000</v>
       </c>
       <c r="H48" s="3">
         <v>1000</v>
       </c>
       <c r="I48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J48" s="3">
         <v>1100</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1200</v>
       </c>
       <c r="K48" s="3">
         <v>1200</v>
@@ -2527,72 +2635,78 @@
         <v>1200</v>
       </c>
       <c r="N48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O48" s="3">
         <v>1300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1200</v>
-      </c>
-      <c r="P48" s="3">
-        <v>1300</v>
       </c>
       <c r="Q48" s="3">
         <v>1300</v>
       </c>
       <c r="R48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S48" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E49" s="3">
         <v>30900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>31300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>31700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>49000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>11600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>11700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>11900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>17200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>17300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>17500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>17700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>17900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>18000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,13 +2808,16 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E52" s="3">
         <v>400</v>
@@ -2706,7 +2826,7 @@
         <v>400</v>
       </c>
       <c r="G52" s="3">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="H52" s="3">
         <v>1400</v>
@@ -2715,34 +2835,37 @@
         <v>1400</v>
       </c>
       <c r="J52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K52" s="3">
         <v>1100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1600</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1500</v>
       </c>
       <c r="N52" s="3">
         <v>1500</v>
       </c>
       <c r="O52" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="P52" s="3">
         <v>1400</v>
       </c>
       <c r="Q52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R52" s="3">
         <v>1500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E54" s="3">
         <v>42900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>43600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>44600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>63700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>35600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>38500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>35900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>31600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>29100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>27800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>27500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>27100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>27900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,66 +3011,70 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E57" s="3">
         <v>7500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7600</v>
-      </c>
-      <c r="H57" s="3">
-        <v>8400</v>
       </c>
       <c r="I57" s="3">
         <v>8400</v>
       </c>
       <c r="J57" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K57" s="3">
         <v>11000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
-      </c>
-      <c r="E58" s="3">
-        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
@@ -2952,137 +3086,146 @@
         <v>100</v>
       </c>
       <c r="I58" s="3">
+        <v>100</v>
+      </c>
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>800</v>
-      </c>
-      <c r="L58" s="3">
-        <v>4700</v>
       </c>
       <c r="M58" s="3">
         <v>4700</v>
       </c>
       <c r="N58" s="3">
+        <v>4700</v>
+      </c>
+      <c r="O58" s="3">
         <v>4500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>9900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>10000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>9500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1600</v>
-      </c>
-      <c r="K59" s="3">
-        <v>2200</v>
       </c>
       <c r="L59" s="3">
         <v>2200</v>
       </c>
       <c r="M59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N59" s="3">
         <v>2400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E60" s="3">
         <v>8300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11700</v>
-      </c>
-      <c r="L60" s="3">
-        <v>16300</v>
       </c>
       <c r="M60" s="3">
         <v>16300</v>
       </c>
       <c r="N60" s="3">
+        <v>16300</v>
+      </c>
+      <c r="O60" s="3">
         <v>16400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>17300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>17000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>17200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3099,28 +3242,28 @@
         <v>200</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>100</v>
-      </c>
-      <c r="K61" s="3">
-        <v>200</v>
       </c>
       <c r="L61" s="3">
         <v>200</v>
       </c>
       <c r="M61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N61" s="3">
         <v>100</v>
       </c>
       <c r="O61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P61" s="3">
         <v>200</v>
@@ -3129,60 +3272,66 @@
         <v>200</v>
       </c>
       <c r="R61" s="3">
+        <v>200</v>
+      </c>
+      <c r="S61" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E62" s="3">
         <v>18100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>17900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>16900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>29500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2500</v>
-      </c>
-      <c r="L62" s="3">
-        <v>2400</v>
       </c>
       <c r="M62" s="3">
         <v>2400</v>
       </c>
       <c r="N62" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O62" s="3">
         <v>2500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E66" s="3">
         <v>26600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>27400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>26800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>38300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14400</v>
-      </c>
-      <c r="L66" s="3">
-        <v>18900</v>
       </c>
       <c r="M66" s="3">
         <v>18900</v>
       </c>
       <c r="N66" s="3">
+        <v>18900</v>
+      </c>
+      <c r="O66" s="3">
         <v>19000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>20000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>20600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>20000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-58400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-54600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-50800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-48200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-40100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-36600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-33800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-33200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-26800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-25600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-23100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-23200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-19600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-18900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-17100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E76" s="3">
         <v>16300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>25400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>23800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>26200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>20200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,63 +4090,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3965,49 +4160,52 @@
         <v>-3800</v>
       </c>
       <c r="E81" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,34 +4224,35 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>400</v>
+      </c>
+      <c r="E83" s="3">
         <v>500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
       </c>
       <c r="J83" s="3">
+        <v>200</v>
+      </c>
+      <c r="K83" s="3">
         <v>400</v>
-      </c>
-      <c r="K83" s="3">
-        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
@@ -4062,10 +4261,10 @@
         <v>200</v>
       </c>
       <c r="N83" s="3">
+        <v>200</v>
+      </c>
+      <c r="O83" s="3">
         <v>300</v>
-      </c>
-      <c r="O83" s="3">
-        <v>200</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>400</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-1000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4408,16 +4629,16 @@
         <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
@@ -4426,10 +4647,10 @@
         <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
@@ -4438,16 +4659,19 @@
         <v>-100</v>
       </c>
       <c r="P91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4773,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4558,16 +4788,16 @@
         <v>-100</v>
       </c>
       <c r="F94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6000</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
@@ -4576,10 +4806,10 @@
         <v>-100</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
@@ -4588,16 +4818,19 @@
         <v>-100</v>
       </c>
       <c r="P94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,20 +5059,23 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>3300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -4837,37 +5083,40 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>2900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>8000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4875,95 +5124,101 @@
         <v>-600</v>
       </c>
       <c r="E101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-600</v>
-      </c>
-      <c r="P101" s="3">
-        <v>100</v>
       </c>
       <c r="Q101" s="3">
         <v>100</v>
       </c>
       <c r="R101" s="3">
+        <v>100</v>
+      </c>
+      <c r="S101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-9800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>8900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELYS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELYS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>ELYS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,145 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E8" s="3">
         <v>9600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>14200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9100</v>
-      </c>
-      <c r="R8" s="3">
-        <v>9300</v>
       </c>
       <c r="S8" s="3">
         <v>9300</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -849,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,50 +1045,53 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>19400</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1200</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
         <v>17400</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>4900</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>700</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1082,31 +1101,34 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>1800</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E17" s="3">
         <v>12700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>32100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-20400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>12000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>1900</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q20" s="3">
         <v>-1000</v>
       </c>
       <c r="R20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="S20" s="3">
         <v>-1600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-8000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2600</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-5800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1419,17 +1458,17 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4200</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1439,114 +1478,123 @@
       <c r="S22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-300</v>
       </c>
       <c r="H24" s="3">
         <v>-300</v>
       </c>
       <c r="I24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
-      </c>
-      <c r="R24" s="3">
-        <v>300</v>
       </c>
       <c r="S24" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3800</v>
+        <v>-8100</v>
       </c>
       <c r="E26" s="3">
         <v>-3800</v>
       </c>
       <c r="F26" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="G26" s="3">
         <v>-2600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3800</v>
+        <v>-8100</v>
       </c>
       <c r="E27" s="3">
         <v>-3800</v>
       </c>
       <c r="F27" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="G27" s="3">
         <v>-2600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E32" s="3">
         <v>600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-12000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-1900</v>
-      </c>
-      <c r="P32" s="3">
-        <v>1000</v>
       </c>
       <c r="Q32" s="3">
         <v>1000</v>
       </c>
       <c r="R32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S32" s="3">
         <v>1600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3800</v>
+        <v>-8100</v>
       </c>
       <c r="E33" s="3">
         <v>-3800</v>
       </c>
       <c r="F33" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="G33" s="3">
         <v>-2600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3800</v>
+        <v>-8100</v>
       </c>
       <c r="E35" s="3">
         <v>-3800</v>
       </c>
       <c r="F35" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="G35" s="3">
         <v>-2600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E41" s="3">
         <v>4700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>19200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>21500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>18900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4900</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>5200</v>
       </c>
       <c r="R41" s="3">
         <v>5200</v>
       </c>
       <c r="S41" s="3">
+        <v>5200</v>
+      </c>
+      <c r="T41" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,61 +2423,67 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E43" s="3">
         <v>1700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2700</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1400</v>
       </c>
       <c r="I43" s="3">
         <v>1400</v>
       </c>
       <c r="J43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K43" s="3">
         <v>1500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>900</v>
-      </c>
-      <c r="M43" s="3">
-        <v>600</v>
       </c>
       <c r="N43" s="3">
         <v>600</v>
       </c>
       <c r="O43" s="3">
+        <v>600</v>
+      </c>
+      <c r="P43" s="3">
         <v>1400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,28 +2535,31 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E45" s="3">
         <v>3300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1300</v>
-      </c>
-      <c r="I45" s="3">
-        <v>600</v>
       </c>
       <c r="J45" s="3">
         <v>600</v>
@@ -2470,89 +2568,95 @@
         <v>600</v>
       </c>
       <c r="L45" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M45" s="3">
         <v>700</v>
       </c>
       <c r="N45" s="3">
+        <v>700</v>
+      </c>
+      <c r="O45" s="3">
         <v>1200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>400</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>300</v>
       </c>
       <c r="R45" s="3">
         <v>300</v>
       </c>
       <c r="S45" s="3">
+        <v>300</v>
+      </c>
+      <c r="T45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E46" s="3">
         <v>9700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>11400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>21200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>23600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>21200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
         <v>100</v>
@@ -2561,37 +2665,37 @@
         <v>100</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>400</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>300</v>
       </c>
       <c r="R47" s="3">
         <v>300</v>
@@ -2599,34 +2703,37 @@
       <c r="S47" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E48" s="3">
         <v>1900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1000</v>
       </c>
       <c r="I48" s="3">
         <v>1000</v>
       </c>
       <c r="J48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K48" s="3">
         <v>1100</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1200</v>
       </c>
       <c r="L48" s="3">
         <v>1200</v>
@@ -2638,75 +2745,81 @@
         <v>1200</v>
       </c>
       <c r="O48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P48" s="3">
         <v>1300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>1300</v>
       </c>
       <c r="R48" s="3">
         <v>1300</v>
       </c>
       <c r="S48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T48" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E49" s="3">
         <v>30600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>30900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>31300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>31700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>49000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>11600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>11700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>17000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>17200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>17300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>17500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>17700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>17900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>18000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,16 +2927,19 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>400</v>
+      </c>
+      <c r="E52" s="3">
         <v>300</v>
-      </c>
-      <c r="E52" s="3">
-        <v>400</v>
       </c>
       <c r="F52" s="3">
         <v>400</v>
@@ -2829,7 +2948,7 @@
         <v>400</v>
       </c>
       <c r="H52" s="3">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="I52" s="3">
         <v>1400</v>
@@ -2838,34 +2957,37 @@
         <v>1400</v>
       </c>
       <c r="K52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L52" s="3">
         <v>1100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1600</v>
-      </c>
-      <c r="N52" s="3">
-        <v>1500</v>
       </c>
       <c r="O52" s="3">
         <v>1500</v>
       </c>
       <c r="P52" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="Q52" s="3">
         <v>1400</v>
       </c>
       <c r="R52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S52" s="3">
         <v>1500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E54" s="3">
         <v>42600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>42900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>43600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>44600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>63700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>35600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>38500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>35900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>31600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>29100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>27800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>27500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>27100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>27900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,72 +3141,76 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E57" s="3">
         <v>8100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7600</v>
-      </c>
-      <c r="I57" s="3">
-        <v>8400</v>
       </c>
       <c r="J57" s="3">
         <v>8400</v>
       </c>
       <c r="K57" s="3">
+        <v>8400</v>
+      </c>
+      <c r="L57" s="3">
         <v>11000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>8500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>300</v>
-      </c>
-      <c r="F58" s="3">
-        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
@@ -3089,143 +3222,152 @@
         <v>100</v>
       </c>
       <c r="J58" s="3">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>800</v>
-      </c>
-      <c r="M58" s="3">
-        <v>4700</v>
       </c>
       <c r="N58" s="3">
         <v>4700</v>
       </c>
       <c r="O58" s="3">
+        <v>4700</v>
+      </c>
+      <c r="P58" s="3">
         <v>4500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>9900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>10000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>9500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1600</v>
-      </c>
-      <c r="L59" s="3">
-        <v>2200</v>
       </c>
       <c r="M59" s="3">
         <v>2200</v>
       </c>
       <c r="N59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O59" s="3">
         <v>2400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E60" s="3">
         <v>9200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11700</v>
-      </c>
-      <c r="M60" s="3">
-        <v>16300</v>
       </c>
       <c r="N60" s="3">
         <v>16300</v>
       </c>
       <c r="O60" s="3">
+        <v>16300</v>
+      </c>
+      <c r="P60" s="3">
         <v>16400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>17300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>17000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>17200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3245,28 +3387,28 @@
         <v>200</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>100</v>
-      </c>
-      <c r="L61" s="3">
-        <v>200</v>
       </c>
       <c r="M61" s="3">
         <v>200</v>
       </c>
       <c r="N61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O61" s="3">
         <v>100</v>
       </c>
       <c r="P61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q61" s="3">
         <v>200</v>
@@ -3275,63 +3417,69 @@
         <v>200</v>
       </c>
       <c r="S61" s="3">
+        <v>200</v>
+      </c>
+      <c r="T61" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E62" s="3">
         <v>19000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>17900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>16900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>29500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2500</v>
-      </c>
-      <c r="M62" s="3">
-        <v>2400</v>
       </c>
       <c r="N62" s="3">
         <v>2400</v>
       </c>
       <c r="O62" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P62" s="3">
         <v>2500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E66" s="3">
         <v>28400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>26600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>27400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>26800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>38300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14400</v>
-      </c>
-      <c r="M66" s="3">
-        <v>18900</v>
       </c>
       <c r="N66" s="3">
         <v>18900</v>
       </c>
       <c r="O66" s="3">
+        <v>18900</v>
+      </c>
+      <c r="P66" s="3">
         <v>19000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>20000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>20600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>20000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-66500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-58400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-54600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-50800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-48200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-40100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-36600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-33800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-33200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-26800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-25600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-23100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-23200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-19600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-18900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-17100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E76" s="3">
         <v>14200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>16200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>17700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>25400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>23800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>26200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>20200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3800</v>
+        <v>-8100</v>
       </c>
       <c r="E81" s="3">
         <v>-3800</v>
       </c>
       <c r="F81" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="G81" s="3">
         <v>-2600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,37 +4422,38 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>500</v>
+      </c>
+      <c r="E83" s="3">
         <v>400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
       </c>
       <c r="K83" s="3">
+        <v>200</v>
+      </c>
+      <c r="L83" s="3">
         <v>400</v>
-      </c>
-      <c r="L83" s="3">
-        <v>200</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
@@ -4264,10 +4462,10 @@
         <v>200</v>
       </c>
       <c r="O83" s="3">
+        <v>200</v>
+      </c>
+      <c r="P83" s="3">
         <v>300</v>
-      </c>
-      <c r="P83" s="3">
-        <v>200</v>
       </c>
       <c r="Q83" s="3">
         <v>200</v>
@@ -4278,8 +4476,11 @@
       <c r="S83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>400</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-1000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,13 +4836,14 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-2500</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
@@ -4632,16 +4852,16 @@
         <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
@@ -4650,10 +4870,10 @@
         <v>-100</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
@@ -4662,16 +4882,19 @@
         <v>-100</v>
       </c>
       <c r="Q91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,13 +5002,16 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>-2500</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
@@ -4791,16 +5020,16 @@
         <v>-100</v>
       </c>
       <c r="G94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6000</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
@@ -4809,10 +5038,10 @@
         <v>-100</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O94" s="3">
         <v>-100</v>
@@ -4821,16 +5050,19 @@
         <v>-100</v>
       </c>
       <c r="Q94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,23 +5304,26 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -5086,139 +5331,148 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>2900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>8000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-600</v>
+        <v>900</v>
       </c>
       <c r="E101" s="3">
         <v>-600</v>
       </c>
       <c r="F101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>100</v>
       </c>
       <c r="R101" s="3">
         <v>100</v>
       </c>
       <c r="S101" s="3">
+        <v>100</v>
+      </c>
+      <c r="T101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-9800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>8900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ELYS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELYS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>ELYS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,159 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F8" s="3">
         <v>10500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>9600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>10300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>12200</v>
-      </c>
-      <c r="H8" s="3">
-        <v>11700</v>
-      </c>
-      <c r="I8" s="3">
-        <v>8000</v>
       </c>
       <c r="J8" s="3">
         <v>11700</v>
       </c>
       <c r="K8" s="3">
+        <v>8000</v>
+      </c>
+      <c r="L8" s="3">
+        <v>11700</v>
+      </c>
+      <c r="M8" s="3">
         <v>14200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>12600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>9700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>10200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>10500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>6800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>9100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>9300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,8 +872,14 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +934,14 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +962,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1020,14 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,76 +1082,88 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
         <v>19400</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1200</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
         <v>17400</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>4900</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>700</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>300</v>
+      </c>
+      <c r="E15" s="3">
+        <v>300</v>
+      </c>
+      <c r="F15" s="3">
         <v>1800</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1130,11 +1176,11 @@
       <c r="J15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1160,8 +1206,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1231,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>14700</v>
+      </c>
+      <c r="F17" s="3">
         <v>34300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>12700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>13800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>14300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>32100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>11100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>14400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>14800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>18600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>10300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>7600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>9000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>12300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>6300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>9700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>10600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-23800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-3100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-3500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-2100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-20400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-3100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2700</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-6000</v>
       </c>
       <c r="M18" s="3">
         <v>-600</v>
       </c>
       <c r="N18" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P18" s="3">
         <v>-2800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-1300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,125 +1379,139 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>14100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>12000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-700</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>400</v>
       </c>
       <c r="L20" s="3">
         <v>-200</v>
       </c>
       <c r="M20" s="3">
+        <v>400</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>1900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-1600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-9200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-3200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-3500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-8000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-3400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2600</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-5800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-1300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-2600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1461,140 +1541,158 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>4200</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-9700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-3700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-3900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-8500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-3800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-6200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-2800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-2100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1600</v>
-      </c>
-      <c r="E24" s="3">
-        <v>200</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-100</v>
       </c>
       <c r="G24" s="3">
         <v>200</v>
       </c>
       <c r="H24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I24" s="3">
+        <v>200</v>
+      </c>
+      <c r="J24" s="3">
         <v>-300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
-      </c>
-      <c r="L24" s="3">
-        <v>100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>200</v>
       </c>
       <c r="N24" s="3">
         <v>100</v>
       </c>
       <c r="O24" s="3">
+        <v>200</v>
+      </c>
+      <c r="P24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>300</v>
-      </c>
-      <c r="R24" s="3">
-        <v>200</v>
       </c>
       <c r="S24" s="3">
         <v>300</v>
       </c>
       <c r="T24" s="3">
+        <v>200</v>
+      </c>
+      <c r="U24" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1747,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-8100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-3800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-3800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-8200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-6400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-3100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-8100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-3800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-3800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-8200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-6400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-3100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1995,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2119,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-14100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-12000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>700</v>
-      </c>
-      <c r="J32" s="3">
-        <v>200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-400</v>
       </c>
       <c r="L32" s="3">
         <v>200</v>
       </c>
       <c r="M32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N32" s="3">
+        <v>200</v>
+      </c>
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>1600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-8100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-3800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-3800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-8200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-6400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-3100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2305,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-8100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-3800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-3800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-8200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-6400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-3100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2486,72 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F41" s="3">
         <v>3400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>4700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>6000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>6600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>7300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>9400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>19200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>21500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>18900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>10600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>5800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>6800</v>
-      </c>
-      <c r="P41" s="3">
-        <v>5200</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>4900</v>
       </c>
       <c r="R41" s="3">
         <v>5200</v>
       </c>
       <c r="S41" s="3">
+        <v>4900</v>
+      </c>
+      <c r="T41" s="3">
         <v>5200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
+        <v>5200</v>
+      </c>
+      <c r="V41" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,64 +2606,76 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E43" s="3">
         <v>2200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G43" s="3">
         <v>1700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>2700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,120 +2730,138 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F45" s="3">
         <v>1200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1300</v>
-      </c>
-      <c r="J45" s="3">
-        <v>600</v>
-      </c>
-      <c r="K45" s="3">
-        <v>600</v>
       </c>
       <c r="L45" s="3">
         <v>600</v>
       </c>
       <c r="M45" s="3">
+        <v>600</v>
+      </c>
+      <c r="N45" s="3">
+        <v>600</v>
+      </c>
+      <c r="O45" s="3">
         <v>700</v>
-      </c>
-      <c r="N45" s="3">
-        <v>700</v>
-      </c>
-      <c r="O45" s="3">
-        <v>1200</v>
       </c>
       <c r="P45" s="3">
         <v>700</v>
       </c>
       <c r="Q45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R45" s="3">
+        <v>700</v>
+      </c>
+      <c r="S45" s="3">
         <v>400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F46" s="3">
         <v>6800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>9700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>9800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>10000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>11400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>12100</v>
-      </c>
-      <c r="J46" s="3">
-        <v>21200</v>
-      </c>
-      <c r="K46" s="3">
-        <v>23600</v>
       </c>
       <c r="L46" s="3">
         <v>21200</v>
       </c>
       <c r="M46" s="3">
+        <v>23600</v>
+      </c>
+      <c r="N46" s="3">
+        <v>21200</v>
+      </c>
+      <c r="O46" s="3">
         <v>12200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>7200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>8700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>7300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>6800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>6300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>6700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2659,87 +2869,93 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
         <v>100</v>
       </c>
       <c r="H47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I47" s="3">
+        <v>100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>400</v>
-      </c>
-      <c r="K47" s="3">
-        <v>700</v>
-      </c>
-      <c r="L47" s="3">
-        <v>500</v>
       </c>
       <c r="M47" s="3">
         <v>700</v>
       </c>
       <c r="N47" s="3">
+        <v>500</v>
+      </c>
+      <c r="O47" s="3">
+        <v>700</v>
+      </c>
+      <c r="P47" s="3">
         <v>900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>400</v>
-      </c>
-      <c r="R47" s="3">
-        <v>300</v>
-      </c>
-      <c r="S47" s="3">
-        <v>300</v>
       </c>
       <c r="T47" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>300</v>
+      </c>
+      <c r="V47" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F48" s="3">
         <v>2100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1100</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M48" s="3">
-        <v>1200</v>
       </c>
       <c r="N48" s="3">
         <v>1200</v>
@@ -2748,7 +2964,7 @@
         <v>1200</v>
       </c>
       <c r="P48" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="Q48" s="3">
         <v>1200</v>
@@ -2757,69 +2973,81 @@
         <v>1300</v>
       </c>
       <c r="S48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T48" s="3">
         <v>1300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V48" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F49" s="3">
         <v>12000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>30600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>30900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>31300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>31700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>49000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>11600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>11700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>11900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>17000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>17200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>17300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>17500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>17700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>17900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>18000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>12800</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3164,76 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
         <v>400</v>
-      </c>
-      <c r="E52" s="3">
-        <v>300</v>
       </c>
       <c r="F52" s="3">
         <v>400</v>
       </c>
       <c r="G52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H52" s="3">
         <v>400</v>
       </c>
       <c r="I52" s="3">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="J52" s="3">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="K52" s="3">
         <v>1400</v>
       </c>
       <c r="L52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N52" s="3">
         <v>1100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>1400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3288,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>24300</v>
+      </c>
+      <c r="F54" s="3">
         <v>21400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>42600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>42900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>43600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>44600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>63700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>35600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>38500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>35900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>31600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>28000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>29100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>27800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>27500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>27100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>27900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>22700</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3402,72 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F57" s="3">
         <v>9000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>8100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>7500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>8800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>9400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>7600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>8400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>8400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>11000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>8800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>9300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>9200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>8500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>6700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>5800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>6300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3207,16 +3475,16 @@
         <v>800</v>
       </c>
       <c r="E58" s="3">
+        <v>800</v>
+      </c>
+      <c r="F58" s="3">
+        <v>800</v>
+      </c>
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
@@ -3225,157 +3493,175 @@
         <v>100</v>
       </c>
       <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>4700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>4700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>4500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>9900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>10000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>9500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>700</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1100</v>
-      </c>
-      <c r="S59" s="3">
-        <v>1400</v>
       </c>
       <c r="T59" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V59" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F60" s="3">
         <v>10700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>9200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>8300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>9400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>9800</v>
-      </c>
-      <c r="I60" s="3">
-        <v>8600</v>
       </c>
       <c r="J60" s="3">
         <v>9800</v>
       </c>
       <c r="K60" s="3">
+        <v>8600</v>
+      </c>
+      <c r="L60" s="3">
+        <v>9800</v>
+      </c>
+      <c r="M60" s="3">
         <v>10000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>13300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>11700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>16300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>16300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>16400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>17300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>17000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>17200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="E61" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F61" s="3">
         <v>200</v>
@@ -3390,96 +3676,108 @@
         <v>200</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>100</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>200</v>
-      </c>
-      <c r="R61" s="3">
-        <v>200</v>
       </c>
       <c r="S61" s="3">
         <v>200</v>
       </c>
       <c r="T61" s="3">
+        <v>200</v>
+      </c>
+      <c r="U61" s="3">
+        <v>200</v>
+      </c>
+      <c r="V61" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F62" s="3">
         <v>3300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>19000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>18100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>17900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>16900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>29500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>2500</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>2600</v>
-      </c>
-      <c r="R62" s="3">
-        <v>3400</v>
       </c>
       <c r="S62" s="3">
         <v>2600</v>
       </c>
       <c r="T62" s="3">
+        <v>3400</v>
+      </c>
+      <c r="U62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="V62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3956,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>16200</v>
+      </c>
+      <c r="F66" s="3">
         <v>14200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>28400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>26600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>27400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>26800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>38300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>11700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>12300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>15700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>14400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>18900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>18900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>19000</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>20000</v>
-      </c>
-      <c r="R66" s="3">
-        <v>20600</v>
       </c>
       <c r="S66" s="3">
         <v>20000</v>
       </c>
       <c r="T66" s="3">
+        <v>20600</v>
+      </c>
+      <c r="U66" s="3">
+        <v>20000</v>
+      </c>
+      <c r="V66" s="3">
         <v>12700</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4290,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-72300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-68800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-66500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-58400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-54600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-50800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-48200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-40100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-36600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-33800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-33200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-26800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-25600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-23100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-23200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-19600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-18900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-17100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4538,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F76" s="3">
         <v>7200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>14200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>16300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>16200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>17700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>25400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>23800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>26200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>20200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>17200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>9100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>10200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>8800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>7500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>6500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>7800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4662,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-8100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-3800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-3800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-8200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-6400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-3100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,16 +4819,18 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F83" s="3">
         <v>500</v>
@@ -4447,31 +4845,31 @@
         <v>400</v>
       </c>
       <c r="J83" s="3">
+        <v>500</v>
+      </c>
+      <c r="K83" s="3">
+        <v>400</v>
+      </c>
+      <c r="L83" s="3">
         <v>200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>200</v>
-      </c>
-      <c r="L83" s="3">
-        <v>400</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
       </c>
       <c r="N83" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
       </c>
       <c r="P83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q83" s="3">
         <v>200</v>
       </c>
       <c r="R83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S83" s="3">
         <v>200</v>
@@ -4479,8 +4877,14 @@
       <c r="T83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>200</v>
+      </c>
+      <c r="V83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5187,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-3200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-3500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>2000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>400</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-1000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5277,72 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2500</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
       </c>
       <c r="P91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
       </c>
       <c r="R91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5459,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2500</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-100</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
       </c>
       <c r="H94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-6000</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-100</v>
-      </c>
       <c r="L94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
       </c>
       <c r="N94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O94" s="3">
         <v>-100</v>
       </c>
       <c r="P94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q94" s="3">
         <v>-100</v>
       </c>
       <c r="R94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5793,196 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E100" s="3">
+        <v>800</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>3300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>2900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>8000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>4700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-300</v>
       </c>
       <c r="Q100" s="3">
         <v>-100</v>
       </c>
       <c r="R100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T100" s="3">
         <v>-200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
         <v>900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-600</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-200</v>
       </c>
       <c r="I101" s="3">
         <v>-300</v>
       </c>
       <c r="J101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>500</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-3100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-9800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-2400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>2900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>8900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>3800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-1100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>1500</v>
       </c>
     </row>
